--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,6 +2128,41 @@
         <v>43839300</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26878800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,6 +2163,41 @@
         <v>26878800</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8046300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2198,6 +2198,41 @@
         <v>8046300</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14657300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2233,6 +2233,41 @@
         <v>14657300</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I54" t="n">
+        <v>38899400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2268,6 +2268,41 @@
         <v>38899400</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14826000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2303,6 +2303,41 @@
         <v>14826000</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5496900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2338,6 +2338,41 @@
         <v>5496900</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21686900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,6 +2373,41 @@
         <v>21686900</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I58" t="n">
+        <v>13640100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2408,6 +2408,41 @@
         <v>13640100</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19438500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2443,6 +2443,41 @@
         <v>19438500</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12825000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,6 +2478,41 @@
         <v>12825000</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10031700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,6 +2513,41 @@
         <v>10031700</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>15505800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,6 +2548,76 @@
         <v>15505800</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19453400</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14910200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2618,6 +2618,76 @@
         <v>14910200</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11723400</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10338700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2688,6 +2688,41 @@
         <v>10338700</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12800400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2723,6 +2723,41 @@
         <v>12800400</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6692400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2758,6 +2758,41 @@
         <v>6692400</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10472000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2793,6 +2793,41 @@
         <v>10472000</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>22287900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2828,6 +2828,76 @@
         <v>22287900</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18407300</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I72" t="n">
+        <v>21119000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2898,6 +2898,41 @@
         <v>21119000</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13119600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,6 +2933,41 @@
         <v>13119600</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12439300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,11 +415,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1574985600</v>
+        <v>1574726400</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -433,28 +433,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.745</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.805</v>
+        <v>0.76</v>
       </c>
       <c r="G2" t="n">
-        <v>0.74</v>
+        <v>0.595</v>
       </c>
       <c r="H2" t="n">
-        <v>0.77</v>
+        <v>0.755</v>
       </c>
       <c r="I2" t="n">
-        <v>29835000</v>
+        <v>262939400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1575244800</v>
+        <v>1574812800</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -468,28 +468,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F3" t="n">
-        <v>0.885</v>
+        <v>0.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.775</v>
+        <v>0.76</v>
       </c>
       <c r="H3" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="I3" t="n">
-        <v>104365400</v>
+        <v>134962300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1575331200</v>
+        <v>1574899200</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -503,28 +503,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.845</v>
+        <v>0.83</v>
       </c>
       <c r="F4" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="G4" t="n">
-        <v>0.845</v>
+        <v>0.74</v>
       </c>
       <c r="H4" t="n">
-        <v>0.87</v>
+        <v>0.755</v>
       </c>
       <c r="I4" t="n">
-        <v>41395800</v>
+        <v>58524100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1575417600</v>
+        <v>1574985600</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -538,28 +538,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.865</v>
+        <v>0.745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.89</v>
+        <v>0.805</v>
       </c>
       <c r="G5" t="n">
-        <v>0.855</v>
+        <v>0.74</v>
       </c>
       <c r="H5" t="n">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="I5" t="n">
-        <v>22305400</v>
+        <v>29835000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1575504000</v>
+        <v>1575244800</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -573,28 +573,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.875</v>
+        <v>0.78</v>
       </c>
       <c r="F6" t="n">
-        <v>0.92</v>
+        <v>0.885</v>
       </c>
       <c r="G6" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.87</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.905</v>
-      </c>
       <c r="I6" t="n">
-        <v>43171200</v>
+        <v>104365400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1575590400</v>
+        <v>1575331200</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -608,28 +608,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.915</v>
+        <v>0.845</v>
       </c>
       <c r="F7" t="n">
-        <v>0.925</v>
+        <v>0.89</v>
       </c>
       <c r="G7" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="H7" t="n">
         <v>0.87</v>
       </c>
       <c r="I7" t="n">
-        <v>22119600</v>
+        <v>41395800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1575849600</v>
+        <v>1575417600</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,28 +643,28 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="F8" t="n">
-        <v>0.895</v>
+        <v>0.89</v>
       </c>
       <c r="G8" t="n">
         <v>0.855</v>
       </c>
       <c r="H8" t="n">
-        <v>0.885</v>
+        <v>0.87</v>
       </c>
       <c r="I8" t="n">
-        <v>12693900</v>
+        <v>22305400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1575936000</v>
+        <v>1575504000</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -678,28 +678,28 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.89</v>
+        <v>0.875</v>
       </c>
       <c r="F9" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G9" t="n">
-        <v>0.855</v>
+        <v>0.87</v>
       </c>
       <c r="H9" t="n">
-        <v>0.865</v>
+        <v>0.905</v>
       </c>
       <c r="I9" t="n">
-        <v>9353300</v>
+        <v>43171200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1576022400</v>
+        <v>1575590400</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -713,28 +713,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.875</v>
+        <v>0.915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.91</v>
+        <v>0.925</v>
       </c>
       <c r="G10" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="H10" t="n">
         <v>0.87</v>
       </c>
       <c r="I10" t="n">
-        <v>17553900</v>
+        <v>22119600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1576108800</v>
+        <v>1575849600</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -754,22 +754,22 @@
         <v>0.895</v>
       </c>
       <c r="G11" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="H11" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="I11" t="n">
-        <v>8349300</v>
+        <v>12693900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1576195200</v>
+        <v>1575936000</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -783,28 +783,28 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.875</v>
+        <v>0.89</v>
       </c>
       <c r="F12" t="n">
-        <v>0.885</v>
+        <v>0.89</v>
       </c>
       <c r="G12" t="n">
-        <v>0.83</v>
+        <v>0.855</v>
       </c>
       <c r="H12" t="n">
-        <v>0.845</v>
+        <v>0.865</v>
       </c>
       <c r="I12" t="n">
-        <v>11832400</v>
+        <v>9353300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1576454400</v>
+        <v>1576022400</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -818,28 +818,28 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.845</v>
+        <v>0.875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.865</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="I13" t="n">
-        <v>13514000</v>
+        <v>17553900</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1576540800</v>
+        <v>1576108800</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,28 +853,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="F14" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.865</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.805</v>
-      </c>
       <c r="H14" t="n">
-        <v>0.855</v>
+        <v>0.875</v>
       </c>
       <c r="I14" t="n">
-        <v>14822200</v>
+        <v>8349300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1576627200</v>
+        <v>1576195200</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.86</v>
+        <v>0.875</v>
       </c>
       <c r="F15" t="n">
-        <v>0.86</v>
+        <v>0.885</v>
       </c>
       <c r="G15" t="n">
-        <v>0.825</v>
+        <v>0.83</v>
       </c>
       <c r="H15" t="n">
-        <v>0.825</v>
+        <v>0.845</v>
       </c>
       <c r="I15" t="n">
-        <v>5667500</v>
+        <v>11832400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1576713600</v>
+        <v>1576454400</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,28 +923,28 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.825</v>
+        <v>0.845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="G16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.82</v>
-      </c>
       <c r="I16" t="n">
-        <v>3007200</v>
+        <v>13514000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1576800000</v>
+        <v>1576540800</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.825</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.845</v>
+        <v>0.865</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="H17" t="n">
-        <v>0.825</v>
+        <v>0.855</v>
       </c>
       <c r="I17" t="n">
-        <v>5036600</v>
+        <v>14822200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1577059200</v>
+        <v>1576627200</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -993,28 +993,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F18" t="n">
         <v>0.86</v>
       </c>
       <c r="G18" t="n">
-        <v>0.82</v>
+        <v>0.825</v>
       </c>
       <c r="H18" t="n">
-        <v>0.855</v>
+        <v>0.825</v>
       </c>
       <c r="I18" t="n">
-        <v>9968200</v>
+        <v>5667500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1577145600</v>
+        <v>1576713600</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.855</v>
+        <v>0.825</v>
       </c>
       <c r="F19" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="G19" t="n">
-        <v>0.79</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="I19" t="n">
-        <v>26116200</v>
+        <v>3007200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1577318400</v>
+        <v>1576800000</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1063,28 +1063,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8</v>
+        <v>0.845</v>
       </c>
       <c r="G20" t="n">
-        <v>0.775</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.785</v>
+        <v>0.825</v>
       </c>
       <c r="I20" t="n">
-        <v>7228200</v>
+        <v>5036600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1577404800</v>
+        <v>1577059200</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1098,28 +1098,28 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.785</v>
+        <v>0.83</v>
       </c>
       <c r="F21" t="n">
-        <v>0.805</v>
+        <v>0.86</v>
       </c>
       <c r="G21" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="H21" t="n">
-        <v>0.78</v>
+        <v>0.855</v>
       </c>
       <c r="I21" t="n">
-        <v>6985600</v>
+        <v>9968200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1577664000</v>
+        <v>1577145600</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1133,28 +1133,28 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.785</v>
+        <v>0.855</v>
       </c>
       <c r="F22" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.79</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.75</v>
-      </c>
       <c r="H22" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="I22" t="n">
-        <v>9469000</v>
+        <v>26116200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1577750400</v>
+        <v>1577318400</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1168,28 +1168,28 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.755</v>
+        <v>0.8</v>
       </c>
       <c r="F23" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.735</v>
+        <v>0.775</v>
       </c>
       <c r="H23" t="n">
-        <v>0.745</v>
+        <v>0.785</v>
       </c>
       <c r="I23" t="n">
-        <v>6955500</v>
+        <v>7228200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1577923200</v>
+        <v>1577404800</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1203,28 +1203,28 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.75</v>
+        <v>0.785</v>
       </c>
       <c r="F24" t="n">
-        <v>0.775</v>
+        <v>0.805</v>
       </c>
       <c r="G24" t="n">
-        <v>0.745</v>
+        <v>0.78</v>
       </c>
       <c r="H24" t="n">
-        <v>0.765</v>
+        <v>0.78</v>
       </c>
       <c r="I24" t="n">
-        <v>6649300</v>
+        <v>6985600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1578009600</v>
+        <v>1577664000</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1238,28 +1238,28 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.77</v>
+        <v>0.785</v>
       </c>
       <c r="F25" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="G25" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="H25" t="n">
-        <v>0.745</v>
+        <v>0.76</v>
       </c>
       <c r="I25" t="n">
-        <v>4369600</v>
+        <v>9469000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1578268800</v>
+        <v>1577750400</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1273,28 +1273,28 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.74</v>
+        <v>0.755</v>
       </c>
       <c r="F26" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="G26" t="n">
-        <v>0.71</v>
+        <v>0.735</v>
       </c>
       <c r="H26" t="n">
-        <v>0.715</v>
+        <v>0.745</v>
       </c>
       <c r="I26" t="n">
-        <v>7093000</v>
+        <v>6955500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1578355200</v>
+        <v>1577923200</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1308,28 +1308,28 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F27" t="n">
-        <v>0.74</v>
+        <v>0.775</v>
       </c>
       <c r="G27" t="n">
-        <v>0.71</v>
+        <v>0.745</v>
       </c>
       <c r="H27" t="n">
-        <v>0.715</v>
+        <v>0.765</v>
       </c>
       <c r="I27" t="n">
-        <v>7141600</v>
+        <v>6649300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1578441600</v>
+        <v>1578009600</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1343,28 +1343,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.705</v>
+        <v>0.77</v>
       </c>
       <c r="F28" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="G28" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="H28" t="n">
-        <v>0.675</v>
+        <v>0.745</v>
       </c>
       <c r="I28" t="n">
-        <v>7265300</v>
+        <v>4369600</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1578528000</v>
+        <v>1578268800</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1378,28 +1378,28 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="F29" t="n">
-        <v>0.765</v>
+        <v>0.74</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="H29" t="n">
-        <v>0.76</v>
+        <v>0.715</v>
       </c>
       <c r="I29" t="n">
-        <v>21979300</v>
+        <v>7093000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1578614400</v>
+        <v>1578355200</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.765</v>
+        <v>0.72</v>
       </c>
       <c r="F30" t="n">
-        <v>0.805</v>
+        <v>0.74</v>
       </c>
       <c r="G30" t="n">
-        <v>0.755</v>
+        <v>0.71</v>
       </c>
       <c r="H30" t="n">
-        <v>0.755</v>
+        <v>0.715</v>
       </c>
       <c r="I30" t="n">
-        <v>19038000</v>
+        <v>7141600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1578873600</v>
+        <v>1578441600</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.755</v>
+        <v>0.705</v>
       </c>
       <c r="F31" t="n">
-        <v>0.755</v>
+        <v>0.71</v>
       </c>
       <c r="G31" t="n">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="H31" t="n">
-        <v>0.74</v>
+        <v>0.675</v>
       </c>
       <c r="I31" t="n">
-        <v>4914900</v>
+        <v>7265300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1578960000</v>
+        <v>1578528000</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1483,28 +1483,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.74</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.77</v>
+        <v>0.765</v>
       </c>
       <c r="G32" t="n">
-        <v>0.73</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0.745</v>
+        <v>0.76</v>
       </c>
       <c r="I32" t="n">
-        <v>4677900</v>
+        <v>21979300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1579046400</v>
+        <v>1578614400</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1518,28 +1518,28 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.745</v>
+        <v>0.765</v>
       </c>
       <c r="F33" t="n">
-        <v>0.745</v>
+        <v>0.805</v>
       </c>
       <c r="G33" t="n">
-        <v>0.725</v>
+        <v>0.755</v>
       </c>
       <c r="H33" t="n">
-        <v>0.73</v>
+        <v>0.755</v>
       </c>
       <c r="I33" t="n">
-        <v>3917100</v>
+        <v>19038000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1579132800</v>
+        <v>1578873600</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1553,28 +1553,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.73</v>
+        <v>0.755</v>
       </c>
       <c r="F34" t="n">
-        <v>0.795</v>
+        <v>0.755</v>
       </c>
       <c r="G34" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="H34" t="n">
-        <v>0.785</v>
+        <v>0.74</v>
       </c>
       <c r="I34" t="n">
-        <v>16239300</v>
+        <v>4914900</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1579219200</v>
+        <v>1578960000</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1588,28 +1588,28 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="G35" t="n">
-        <v>0.775</v>
+        <v>0.73</v>
       </c>
       <c r="H35" t="n">
-        <v>0.79</v>
+        <v>0.745</v>
       </c>
       <c r="I35" t="n">
-        <v>16249300</v>
+        <v>4677900</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1579478400</v>
+        <v>1579046400</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1623,28 +1623,28 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>0.745</v>
       </c>
       <c r="F36" t="n">
-        <v>0.835</v>
+        <v>0.745</v>
       </c>
       <c r="G36" t="n">
-        <v>0.795</v>
+        <v>0.725</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="I36" t="n">
-        <v>16736700</v>
+        <v>3917100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1579564800</v>
+        <v>1579132800</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1658,28 +1658,28 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="F37" t="n">
-        <v>0.83</v>
+        <v>0.795</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="H37" t="n">
-        <v>0.83</v>
+        <v>0.785</v>
       </c>
       <c r="I37" t="n">
-        <v>8367600</v>
+        <v>16239300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1579651200</v>
+        <v>1579219200</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1693,28 +1693,28 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="F38" t="n">
-        <v>0.85</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.775</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="I38" t="n">
-        <v>8887300</v>
+        <v>16249300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1579737600</v>
+        <v>1579478400</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1728,28 +1728,28 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F39" t="n">
         <v>0.835</v>
       </c>
       <c r="G39" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.83</v>
-      </c>
       <c r="I39" t="n">
-        <v>4255400</v>
+        <v>16736700</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1579824000</v>
+        <v>1579564800</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1763,28 +1763,28 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.835</v>
+        <v>0.82</v>
       </c>
       <c r="F40" t="n">
-        <v>0.845</v>
+        <v>0.83</v>
       </c>
       <c r="G40" t="n">
-        <v>0.825</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.835</v>
+        <v>0.83</v>
       </c>
       <c r="I40" t="n">
-        <v>2150500</v>
+        <v>8367600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1580169600</v>
+        <v>1579651200</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1798,28 +1798,28 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.805</v>
+        <v>0.835</v>
       </c>
       <c r="F41" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.78</v>
-      </c>
       <c r="H41" t="n">
-        <v>0.805</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>6254200</v>
+        <v>8887300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1580256000</v>
+        <v>1579737600</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1833,28 +1833,28 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.805</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.845</v>
+        <v>0.835</v>
       </c>
       <c r="G42" t="n">
-        <v>0.805</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I42" t="n">
-        <v>6743000</v>
+        <v>4255400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1580342400</v>
+        <v>1579824000</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1868,28 +1868,28 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.84</v>
+        <v>0.835</v>
       </c>
       <c r="F43" t="n">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.835</v>
       </c>
       <c r="I43" t="n">
-        <v>3261100</v>
+        <v>2150500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1580428800</v>
+        <v>1580169600</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1903,28 +1903,28 @@
         </is>
       </c>
       <c r="E44" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="F44" t="n">
-        <v>0.82</v>
-      </c>
       <c r="G44" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="H44" t="n">
-        <v>0.775</v>
+        <v>0.805</v>
       </c>
       <c r="I44" t="n">
-        <v>3949000</v>
+        <v>6254200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1580688000</v>
+        <v>1580256000</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1938,28 +1938,28 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.76</v>
+        <v>0.805</v>
       </c>
       <c r="F45" t="n">
-        <v>0.785</v>
+        <v>0.845</v>
       </c>
       <c r="G45" t="n">
-        <v>0.71</v>
+        <v>0.805</v>
       </c>
       <c r="H45" t="n">
-        <v>0.785</v>
+        <v>0.84</v>
       </c>
       <c r="I45" t="n">
-        <v>6401400</v>
+        <v>6743000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1580774400</v>
+        <v>1580342400</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1973,28 +1973,28 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.785</v>
+        <v>0.84</v>
       </c>
       <c r="F46" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.775</v>
-      </c>
       <c r="H46" t="n">
-        <v>0.785</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>2473600</v>
+        <v>3261100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1580860800</v>
+        <v>1580428800</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2008,28 +2008,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.785</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="G47" t="n">
-        <v>0.785</v>
+        <v>0.76</v>
       </c>
       <c r="H47" t="n">
-        <v>0.84</v>
+        <v>0.775</v>
       </c>
       <c r="I47" t="n">
-        <v>9028000</v>
+        <v>3949000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1580947200</v>
+        <v>1580688000</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2043,28 +2043,28 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.845</v>
+        <v>0.76</v>
       </c>
       <c r="F48" t="n">
-        <v>1.03</v>
+        <v>0.785</v>
       </c>
       <c r="G48" t="n">
-        <v>0.845</v>
+        <v>0.71</v>
       </c>
       <c r="H48" t="n">
-        <v>1.01</v>
+        <v>0.785</v>
       </c>
       <c r="I48" t="n">
-        <v>45246300</v>
+        <v>6401400</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1581033600</v>
+        <v>1580774400</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.995</v>
+        <v>0.785</v>
       </c>
       <c r="F49" t="n">
-        <v>1.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>0.985</v>
+        <v>0.775</v>
       </c>
       <c r="H49" t="n">
-        <v>1.03</v>
+        <v>0.785</v>
       </c>
       <c r="I49" t="n">
-        <v>24597800</v>
+        <v>2473600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1581292800</v>
+        <v>1580860800</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2113,28 +2113,28 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.02</v>
+        <v>0.785</v>
       </c>
       <c r="F50" t="n">
-        <v>1.24</v>
+        <v>0.84</v>
       </c>
       <c r="G50" t="n">
-        <v>1.01</v>
+        <v>0.785</v>
       </c>
       <c r="H50" t="n">
-        <v>1.1</v>
+        <v>0.84</v>
       </c>
       <c r="I50" t="n">
-        <v>43839300</v>
+        <v>9028000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1581379200</v>
+        <v>1580947200</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2148,28 +2148,28 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.1</v>
+        <v>0.845</v>
       </c>
       <c r="F51" t="n">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="G51" t="n">
-        <v>1.02</v>
+        <v>0.845</v>
       </c>
       <c r="H51" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="I51" t="n">
-        <v>26878800</v>
+        <v>45246300</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1581465600</v>
+        <v>1581033600</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2183,28 +2183,28 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.11</v>
+        <v>0.995</v>
       </c>
       <c r="F52" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="G52" t="n">
-        <v>1.08</v>
+        <v>0.985</v>
       </c>
       <c r="H52" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="I52" t="n">
-        <v>8046300</v>
+        <v>24597800</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1581552000</v>
+        <v>1581292800</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2218,28 +2218,28 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="F53" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="G53" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="H53" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="I53" t="n">
-        <v>14657300</v>
+        <v>43839300</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1581638400</v>
+        <v>1581379200</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2253,28 +2253,28 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="F54" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="G54" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="H54" t="n">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="I54" t="n">
-        <v>38899400</v>
+        <v>26878800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1581897600</v>
+        <v>1581465600</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2288,28 +2288,28 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="F55" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="G55" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="H55" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="I55" t="n">
-        <v>14826000</v>
+        <v>8046300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1581984000</v>
+        <v>1581552000</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2323,28 +2323,28 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="F56" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="G56" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="H56" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="I56" t="n">
-        <v>5496900</v>
+        <v>14657300</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1582070400</v>
+        <v>1581638400</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2358,28 +2358,28 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="F57" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="G57" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="H57" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="I57" t="n">
-        <v>21686900</v>
+        <v>38899400</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1582156800</v>
+        <v>1581897600</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2393,28 +2393,28 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="G58" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H58" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="I58" t="n">
-        <v>13640100</v>
+        <v>14826000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1582243200</v>
+        <v>1581984000</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2428,28 +2428,28 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="F59" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="H59" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="I59" t="n">
-        <v>19438500</v>
+        <v>5496900</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1582502400</v>
+        <v>1582070400</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2463,28 +2463,28 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="F60" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="G60" t="n">
         <v>1.24</v>
       </c>
       <c r="H60" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="I60" t="n">
-        <v>12825000</v>
+        <v>21686900</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1582588800</v>
+        <v>1582156800</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2498,28 +2498,28 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="F61" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G61" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H61" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="I61" t="n">
-        <v>10031700</v>
+        <v>13640100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1582675200</v>
+        <v>1582243200</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2533,28 +2533,28 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="F62" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="G62" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="I62" t="n">
-        <v>15505800</v>
+        <v>19438500</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1582761600</v>
+        <v>1582502400</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2568,28 +2568,28 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="F63" t="n">
         <v>1.32</v>
       </c>
       <c r="G63" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="H63" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="I63" t="n">
-        <v>19453400</v>
+        <v>12825000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1582848000</v>
+        <v>1582588800</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2603,28 +2603,28 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="F64" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G64" t="n">
         <v>1.25</v>
       </c>
-      <c r="G64" t="n">
-        <v>1.08</v>
-      </c>
       <c r="H64" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="I64" t="n">
-        <v>14910200</v>
+        <v>10031700</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1583107200</v>
+        <v>1582675200</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2638,28 +2638,28 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="F65" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="G65" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="H65" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="I65" t="n">
-        <v>11723400</v>
+        <v>15505800</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1583193600</v>
+        <v>1582761600</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2673,28 +2673,28 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="F66" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="H66" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="I66" t="n">
-        <v>10338700</v>
+        <v>19453400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1583280000</v>
+        <v>1582848000</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="F67" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="G67" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H67" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="I67" t="n">
-        <v>12800400</v>
+        <v>14910200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1583366400</v>
+        <v>1583107200</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2743,28 +2743,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F68" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H68" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="I68" t="n">
-        <v>6692400</v>
+        <v>11723400</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1583452800</v>
+        <v>1583193600</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2778,28 +2778,28 @@
         </is>
       </c>
       <c r="E69" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G69" t="n">
         <v>1.1</v>
       </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
         <v>1.12</v>
       </c>
-      <c r="G69" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1.02</v>
-      </c>
       <c r="I69" t="n">
-        <v>10472000</v>
+        <v>10338700</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1583712000</v>
+        <v>1583280000</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2813,28 +2813,28 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.97</v>
+        <v>1.15</v>
       </c>
       <c r="G70" t="n">
-        <v>0.765</v>
+        <v>1.09</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="I70" t="n">
-        <v>22287900</v>
+        <v>12800400</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1583798400</v>
+        <v>1583366400</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2848,28 +2848,28 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.785</v>
+        <v>1.11</v>
       </c>
       <c r="F71" t="n">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="G71" t="n">
-        <v>0.785</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="I71" t="n">
-        <v>18407300</v>
+        <v>6692400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1583884800</v>
+        <v>1583452800</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2883,28 +2883,28 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.995</v>
+        <v>1.12</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="H72" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="I72" t="n">
-        <v>21119000</v>
+        <v>10472000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1583971200</v>
+        <v>1583712000</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2918,53 +2918,158 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="F73" t="n">
-        <v>0.885</v>
+        <v>0.97</v>
       </c>
       <c r="G73" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.8</v>
       </c>
-      <c r="H73" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="I73" t="n">
-        <v>13119600</v>
+        <v>22287900</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18407300</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21119000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13119600</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>0215</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>SLVEST</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
         <v>0.745</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F77" t="n">
         <v>0.84</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G77" t="n">
         <v>0.735</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H77" t="n">
         <v>0.79</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I77" t="n">
         <v>12439300</v>
       </c>
     </row>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3073,6 +3073,41 @@
         <v>12439300</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10114300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,6 +3108,41 @@
         <v>10114300</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I79" t="n">
+        <v>10017100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3143,6 +3143,41 @@
         <v>10017100</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7492100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,6 +3178,41 @@
         <v>7492100</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8033600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3213,6 +3213,41 @@
         <v>8033600</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15171700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3248,6 +3248,41 @@
         <v>15171700</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I83" t="n">
+        <v>7994900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3283,6 +3283,41 @@
         <v>7994900</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11204700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3318,6 +3318,41 @@
         <v>11204700</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I85" t="n">
+        <v>20448600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3353,6 +3353,41 @@
         <v>20448600</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I86" t="n">
+        <v>11357800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3388,6 +3388,41 @@
         <v>11357800</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I87" t="n">
+        <v>14923900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,6 +3423,41 @@
         <v>14923900</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5854200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3458,6 +3458,41 @@
         <v>5854200</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12707800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3493,6 +3493,41 @@
         <v>12707800</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I90" t="n">
+        <v>19473600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3528,6 +3528,41 @@
         <v>19473600</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6719900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3563,6 +3563,41 @@
         <v>6719900</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I92" t="n">
+        <v>5272400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3598,6 +3598,41 @@
         <v>5272400</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10830200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3633,6 +3633,41 @@
         <v>10830200</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25868100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3668,6 +3668,41 @@
         <v>25868100</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I95" t="n">
+        <v>13265800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3703,6 +3703,41 @@
         <v>13265800</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I96" t="n">
+        <v>5636100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3738,6 +3738,41 @@
         <v>5636100</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5927900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3773,6 +3773,41 @@
         <v>5927900</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3909100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3808,6 +3808,41 @@
         <v>3909100</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25481100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,6 +3843,41 @@
         <v>25481100</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I100" t="n">
+        <v>33496600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3878,6 +3878,41 @@
         <v>33496600</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10374200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3913,6 +3913,41 @@
         <v>10374200</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I102" t="n">
+        <v>13468300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3948,6 +3948,76 @@
         <v>13468300</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I103" t="n">
+        <v>19583400</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I104" t="n">
+        <v>9489800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4018,6 +4018,41 @@
         <v>9489800</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I105" t="n">
+        <v>27018900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,6 +4053,111 @@
         <v>27018900</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I106" t="n">
+        <v>56500500</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10574400</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10433600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4158,6 +4158,41 @@
         <v>10433600</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I109" t="n">
+        <v>15304400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4193,6 +4193,41 @@
         <v>15304400</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I110" t="n">
+        <v>19116200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0215.xlsx
+++ b/data/0215.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4228,6 +4228,111 @@
         <v>19116200</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I111" t="n">
+        <v>24386500</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I112" t="n">
+        <v>12731700</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I113" t="n">
+        <v>13574900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
